--- a/品質管理/要件定義書との比較表.xlsx
+++ b/品質管理/要件定義書との比較表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695EB30E-A747-464D-B632-5BC508BD0C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C747DC-3256-4E81-A8DB-982D2F0BF53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE25D1DB-7CBB-42E2-880C-2FB0A5751C8A}"/>
   </bookViews>
@@ -1011,6 +1011,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1040,9 +1043,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,9 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA61D0C-2CB5-4805-A01D-0689A2A0575E}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1635,7 +1633,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1658,49 +1656,49 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1728,7 +1726,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:9" ht="138" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1751,7 +1749,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1770,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="159" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>56</v>
       </c>
@@ -1832,7 +1830,7 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="113.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1853,7 +1851,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1875,7 +1873,7 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1898,7 +1896,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="7" t="s">
         <v>77</v>
       </c>
@@ -1961,10 +1959,10 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="4"/>
@@ -1975,14 +1973,14 @@
     </row>
     <row r="28" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2065,7 +2063,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2088,7 +2086,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2107,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
@@ -2130,7 +2128,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>

--- a/品質管理/要件定義書との比較表.xlsx
+++ b/品質管理/要件定義書との比較表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C747DC-3256-4E81-A8DB-982D2F0BF53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25315FF-02F2-4C37-BFD1-4F2DDB7001C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE25D1DB-7CBB-42E2-880C-2FB0A5751C8A}"/>
+    <workbookView xWindow="10050" yWindow="345" windowWidth="10680" windowHeight="10485" xr2:uid="{DE25D1DB-7CBB-42E2-880C-2FB0A5751C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1571,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA61D0C-2CB5-4805-A01D-0689A2A0575E}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
